--- a/src/attributions/attributions_ig_traj_103.xlsx
+++ b/src/attributions/attributions_ig_traj_103.xlsx
@@ -1007,127 +1007,127 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0.4111320969506546</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0175957695350692</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.001013049564898855</v>
+        <v>0.02358256586918858</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0.1792608810627166</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04692966665464503</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>0.2379626069664717</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0008449059986917925</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.003375009475331951</v>
+        <v>0.002418477277175751</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>-0.07842125405032033</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q2" t="n">
         <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04063652149830437</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0</v>
+        <v>0.02817595103259742</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.004776026812083437</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05592045548533547</v>
+        <v>-0.1276809088937728</v>
       </c>
       <c r="X2" t="n">
-        <v>-0</v>
+        <v>-0.0827236656829249</v>
       </c>
       <c r="Y2" t="n">
         <v>-0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0314900822293522</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
         <v>-0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0</v>
+        <v>-0.09940724559356623</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.02208426975689027</v>
+        <v>-0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.00963254841554066</v>
+        <v>-0.01858027273917465</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>0.02961551475782003</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.03430326624420686</v>
+        <v>-0</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0</v>
+        <v>0.08854244585182115</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.01332531112198107</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.01232609806444182</v>
+        <v>-0.05130078041211709</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>-0.2252444113146931</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -1136,268 +1136,268 @@
         <v>-0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0117178891365814</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0</v>
+        <v>0.6568588836858873</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.03432181232715526</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.0006119903577449062</v>
+        <v>0.03937457979777849</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0.2419292571258394</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
         <v>-0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.07773805589558566</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0</v>
+        <v>0.1161815682262236</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.01136460320971388</v>
+        <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.0153929597275385</v>
+        <v>-0.07781674359735101</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>-0.07196153337767504</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ2" t="n">
         <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.00948654783118456</v>
+        <v>-0</v>
       </c>
       <c r="BL2" t="n">
         <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0</v>
+        <v>0.2258279380520328</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.005184296766650723</v>
+        <v>-0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.01120603334302136</v>
+        <v>0.1033566897738419</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0</v>
+        <v>0.05048835056374159</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.03110690818319259</v>
+        <v>-0</v>
       </c>
       <c r="BU2" t="n">
         <v>-0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0</v>
+        <v>0.3007166005969449</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.0273633925489168</v>
+        <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.0007864261874591654</v>
+        <v>-0.03666796558690986</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>-0.02826833632720982</v>
       </c>
       <c r="CA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB2" t="n">
         <v>-0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.05701400842306782</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
         <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0.1546313974281505</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.003603325853835252</v>
+        <v>-0</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.005190647828184464</v>
+        <v>-0.04070419521705373</v>
       </c>
       <c r="CI2" t="n">
-        <v>0</v>
+        <v>0.1184715981077245</v>
       </c>
       <c r="CJ2" t="n">
         <v>-0</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.0130836338069245</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>0.006539323907415966</v>
       </c>
       <c r="CO2" t="n">
         <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.01568643676217822</v>
+        <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0178467971109984</v>
+        <v>0.0265989421888663</v>
       </c>
       <c r="CR2" t="n">
-        <v>0</v>
+        <v>-0.1006558601153261</v>
       </c>
       <c r="CS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT2" t="n">
         <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.02356894692456972</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>-0.1064990828042175</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.009702240390290934</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.0008171004923178736</v>
+        <v>-0.03773375859253105</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0</v>
+        <v>0.1286154949057224</v>
       </c>
       <c r="DB2" t="n">
         <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.01949996079559622</v>
+        <v>-0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0.01871537356717067</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.01629098299004717</v>
+        <v>-0</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.004628448256822158</v>
+        <v>0.02369923939852183</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>-0.001558429664727605</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL2" t="n">
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.006797667853516539</v>
+        <v>-0</v>
       </c>
       <c r="DN2" t="n">
         <v>-0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0.06304488579381003</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.006230064336793426</v>
+        <v>-0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.009058596455815131</v>
+        <v>0.02556134540174183</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>-0.08860122584920155</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU2" t="n">
         <v>-0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0134837924371547</v>
+        <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>-0.06608165992296255</v>
       </c>
       <c r="DY2" t="n">
         <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.01113339550643859</v>
+        <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.006597359068907789</v>
+        <v>-0.08418786500915654</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>-0.07266603767056611</v>
       </c>
       <c r="EC2" t="n">
         <v>0</v>
@@ -1406,106 +1406,106 @@
         <v>0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.007969304881760427</v>
+        <v>0</v>
       </c>
       <c r="EF2" t="n">
         <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.05943105407897484</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.006643785982864131</v>
+        <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.01396796388311697</v>
+        <v>0.04863504922593821</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0.08056488584251942</v>
       </c>
       <c r="EL2" t="n">
         <v>-0</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.02503004673417165</v>
+        <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0</v>
+        <v>-0.1160158850719127</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.03952388679956393</v>
+        <v>-0</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.01048621531107608</v>
+        <v>-0.09288342740707775</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>0.2621194699314724</v>
       </c>
       <c r="EU2" t="n">
         <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.02113346838589463</v>
+        <v>-0</v>
       </c>
       <c r="EX2" t="n">
         <v>-0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0.1008679973981888</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.004292105439332112</v>
+        <v>-0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.007192990155072116</v>
+        <v>-0.03952604944732149</v>
       </c>
       <c r="FC2" t="n">
-        <v>0</v>
+        <v>0.126848413033026</v>
       </c>
       <c r="FD2" t="n">
         <v>-0</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.0270976493938803</v>
+        <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>-0.07456720861828821</v>
       </c>
       <c r="FI2" t="n">
         <v>-0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.01808993831948279</v>
+        <v>-0</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.02497403440948611</v>
+        <v>-0.07580627590038916</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>-0.0006429128336200786</v>
       </c>
       <c r="FM2" t="n">
         <v>-0</v>
@@ -1514,61 +1514,61 @@
         <v>-0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.02815478872461111</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0</v>
+        <v>-0.1041418280789491</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0001167818135912484</v>
+        <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.002197372945522039</v>
+        <v>-0.1162234886281514</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0.01186438839749675</v>
       </c>
       <c r="FV2" t="n">
         <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.03336255922586468</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>-0.0539387406467447</v>
       </c>
       <c r="GA2" t="n">
         <v>-0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.02358136439767251</v>
+        <v>-0</v>
       </c>
       <c r="GC2" t="n">
         <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>-0.0803452366861732</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.02011564140153014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>-0.01042869137001849</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0.1230302688064303</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01784185173508359</v>
+        <v>-0.03309095389595627</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1348674508609112</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.005767158959041583</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>-0.03453155756518091</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.1517299894060621</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0009618806985934917</v>
+        <v>0.03717885029209736</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1260505105177022</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01852442743875666</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1633,76 +1633,76 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>-0</v>
+        <v>-0.04286031727670936</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.06683697607835783</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.04209310275787288</v>
+        <v>-0.006276581202338312</v>
       </c>
       <c r="X3" t="n">
-        <v>0.06333366744966072</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.01082870187179451</v>
+        <v>-0</v>
       </c>
       <c r="AA3" t="n">
         <v>-0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0</v>
+        <v>2.027494840737069e-11</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0.03284524369634274</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.04701037770012199</v>
+        <v>-0.006202485568957438</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.01646064233208627</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>-2.507906145581092e-11</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>0.006948339947157798</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>0.05225979522733523</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0625514020349279</v>
+        <v>0.01697164270976599</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.01414424049888091</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.00329680756674955</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -1714,76 +1714,76 @@
         <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0</v>
+        <v>-0.1068741668298867</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>0.1067173608473289</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.04604601064309894</v>
+        <v>-0.1752015384969609</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.1325093881252735</v>
+        <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0.05080877162509923</v>
+        <v>-0</v>
       </c>
       <c r="BB3" t="n">
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0</v>
+        <v>-0.03553269029885878</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0.04586376392516243</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.01003681578436145</v>
+        <v>0.01782308281531692</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.02536273024401946</v>
+        <v>-0</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.01673041324369269</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="n">
         <v>-0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM3" t="n">
         <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>0</v>
+        <v>0.02810065995097656</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>-0.03707319930836066</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.01232780326917851</v>
+        <v>-0.07365042183451745</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0.04512078751270496</v>
+        <v>0</v>
       </c>
       <c r="BR3" t="n">
         <v>-0</v>
       </c>
       <c r="BS3" t="n">
-        <v>-0.01280561378300155</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
         <v>0</v>
@@ -1795,22 +1795,22 @@
         <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>0</v>
+        <v>-0.09572020751117027</v>
       </c>
       <c r="BX3" t="n">
-        <v>0</v>
+        <v>0.1139443380296394</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.04212502646287451</v>
+        <v>-0.105030260879338</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.1069266594516752</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0.05157464355866549</v>
+        <v>-0</v>
       </c>
       <c r="CC3" t="n">
         <v>0</v>
@@ -1819,133 +1819,133 @@
         <v>-0</v>
       </c>
       <c r="CE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF3" t="n">
-        <v>0</v>
+        <v>0.04136965437156848</v>
       </c>
       <c r="CG3" t="n">
-        <v>0</v>
+        <v>-0.05860064060659846</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.003114280428101504</v>
+        <v>0.002681708435055325</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0.05131153098037716</v>
+        <v>0</v>
       </c>
       <c r="CJ3" t="n">
         <v>0</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.02354003477340313</v>
+        <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
         <v>-0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0</v>
+        <v>0.01759365352553728</v>
       </c>
       <c r="CP3" t="n">
-        <v>0</v>
+        <v>-0.003761985869944934</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.03399699772298532</v>
+        <v>0.04298278634928088</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.03112059040360543</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
         <v>-0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.003426547755594588</v>
+        <v>0</v>
       </c>
       <c r="CU3" t="n">
         <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CX3" t="n">
-        <v>-0</v>
+        <v>0.02402343072642254</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0</v>
+        <v>-0.05525912753748603</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.0006160457668360776</v>
+        <v>0.01067427201279725</v>
       </c>
       <c r="DA3" t="n">
-        <v>-0.05456528717339719</v>
+        <v>-0</v>
       </c>
       <c r="DB3" t="n">
         <v>-0</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.03236328614838255</v>
+        <v>-0</v>
       </c>
       <c r="DD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
         <v>0</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0</v>
+        <v>0.006924391241504014</v>
       </c>
       <c r="DH3" t="n">
-        <v>0</v>
+        <v>-0.04518675131906493</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.005292174649924306</v>
+        <v>0.002325248967013727</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0.02254830330480904</v>
+        <v>0</v>
       </c>
       <c r="DK3" t="n">
         <v>0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.006644323171332764</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO3" t="n">
         <v>0</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>0.01323490806876642</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0</v>
+        <v>-0.02135387071409757</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.004749230482471821</v>
+        <v>0.03351203764498438</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0.01039979000059376</v>
+        <v>-0</v>
       </c>
       <c r="DT3" t="n">
         <v>-0</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.06838696562265048</v>
+        <v>-0</v>
       </c>
       <c r="DV3" t="n">
         <v>-0</v>
@@ -1954,79 +1954,79 @@
         <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
-        <v>0</v>
+        <v>0.02432039550455034</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-0</v>
+        <v>0.03258441927702255</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.0228819447264112</v>
+        <v>0.04033800848683149</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0.01169063246379059</v>
+        <v>-0</v>
       </c>
       <c r="EC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.02954124045481135</v>
+        <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0</v>
+        <v>0.05036555373823945</v>
       </c>
       <c r="EI3" t="n">
-        <v>0</v>
+        <v>-0.06849696891146201</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-0.02743946374389096</v>
+        <v>0.02389267661257155</v>
       </c>
       <c r="EK3" t="n">
-        <v>-0.0866138045098595</v>
+        <v>0</v>
       </c>
       <c r="EL3" t="n">
         <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>-0.004068836107883432</v>
+        <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP3" t="n">
         <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0</v>
+        <v>0.05145098080514049</v>
       </c>
       <c r="ER3" t="n">
-        <v>0</v>
+        <v>-0.03317768953609478</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.03751098282583924</v>
+        <v>-0.01934575852058064</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0.05110770615019027</v>
+        <v>-0</v>
       </c>
       <c r="EU3" t="n">
         <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.01475253830711675</v>
+        <v>-0</v>
       </c>
       <c r="EW3" t="n">
         <v>0</v>
@@ -2035,79 +2035,79 @@
         <v>-0</v>
       </c>
       <c r="EY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0</v>
+        <v>0.02728735686670834</v>
       </c>
       <c r="FA3" t="n">
-        <v>0</v>
+        <v>-0.05547776958395853</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.002981669397656508</v>
+        <v>0.002181511755434767</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0.04892298921121977</v>
+        <v>0</v>
       </c>
       <c r="FD3" t="n">
         <v>0</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.02756143751602722</v>
+        <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>0</v>
+        <v>0.0290189604768337</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0</v>
+        <v>0.0245504035948593</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.03724438623863153</v>
+        <v>-0.02152438931602076</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0.001301982994052763</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
         <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.03917425537314757</v>
+        <v>-0</v>
       </c>
       <c r="FO3" t="n">
         <v>-0</v>
       </c>
       <c r="FP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0</v>
+        <v>0.009500815669758684</v>
       </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>0.004828019153648192</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.002402634114085359</v>
+        <v>-0.01299274040415152</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.009821016251630572</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.004572093909774475</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
         <v>-0</v>
@@ -2116,25 +2116,25 @@
         <v>0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GA3" t="n">
-        <v>0</v>
+        <v>0.02296848289731963</v>
       </c>
       <c r="GB3" t="n">
-        <v>-0</v>
+        <v>0.01099024757194601</v>
       </c>
       <c r="GC3" t="n">
         <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.02676455727456561</v>
+        <v>0</v>
       </c>
       <c r="GE3" t="n">
         <v>0</v>
       </c>
       <c r="GF3" t="n">
-        <v>-0.00666272964032528</v>
+        <v>-0</v>
       </c>
       <c r="GG3" t="n">
         <v>0</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>-0</v>
       </c>
       <c r="O4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>-0</v>
       </c>
       <c r="X4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>-0</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="n">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>-0</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>-0</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>-0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR4" t="n">
         <v>0</v>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>-0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA4" t="n">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>-0</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
         <v>0</v>
@@ -2427,7 +2427,7 @@
         <v>-0</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS4" t="n">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>-0</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>-0</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
         <v>0</v>
@@ -2562,7 +2562,7 @@
         <v>-0</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL4" t="n">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>-0</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU4" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
         <v>0</v>
@@ -2616,7 +2616,7 @@
         <v>-0</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD4" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI4" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>-0</v>
       </c>
       <c r="FL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM4" t="n">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1044088754940439</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2723,25 +2723,25 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01353177127350195</v>
+        <v>-0.07832780177233127</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1636819993206081</v>
+        <v>-0.03179716969707614</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.004263679358196353</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.06241878453672817</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -2750,43 +2750,43 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01470009053830687</v>
+        <v>-0.06898440328844287</v>
       </c>
       <c r="O5" t="n">
-        <v>0.155875648016692</v>
+        <v>-0.03537547505625575</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002167544436268798</v>
+        <v>-0</v>
       </c>
       <c r="R5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.02822544101302507</v>
       </c>
       <c r="U5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.03938110501359542</v>
+        <v>-0.01329592300807173</v>
       </c>
       <c r="X5" t="n">
-        <v>0.05324061025092465</v>
+        <v>0.02479033644328613</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.006699750024428808</v>
+        <v>-0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -2795,25 +2795,25 @@
         <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>-0.01185824858284322</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
         <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02775968314403154</v>
+        <v>-0.004889007696877502</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.01857603843133391</v>
+        <v>-0.01243221302392616</v>
       </c>
       <c r="AH5" t="n">
         <v>-0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01683492589523334</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
@@ -2822,34 +2822,34 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.0463589044133096</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.005822366063968937</v>
+        <v>-0.01140285256105663</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.02044606403646484</v>
+        <v>-0.004666920676855</v>
       </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.0008116336144784223</v>
+        <v>-0</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.1421593541027407</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2858,79 +2858,79 @@
         <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.01864487160632483</v>
+        <v>-0.06412795111771523</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.10049653511453</v>
+        <v>-0.04760655275956677</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0005360991511599577</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
         <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.02954556964014671</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.01221916417094983</v>
+        <v>-0.06428990002848578</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.05292122046436409</v>
+        <v>0.002455262544412961</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.01712118371788572</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.04997161291803339</v>
       </c>
       <c r="BN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
         <v>0</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.03141029428842296</v>
+        <v>0.01918775826261736</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0.04919916431758195</v>
+        <v>0.02655585124963087</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>-0.01452116008974353</v>
+        <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.06474140160821251</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
@@ -2939,25 +2939,25 @@
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.06236034684453346</v>
+        <v>-0.02395678789920924</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.1390892969261069</v>
+        <v>-0.005559005697554911</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.01109646931044916</v>
+        <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.02389679677547089</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
@@ -2966,79 +2966,79 @@
         <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.004868586452398848</v>
+        <v>0.01898949191757087</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0.03931862281116905</v>
+        <v>0.01598554641011758</v>
       </c>
       <c r="CJ5" t="n">
         <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.004082944514000197</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>0.009847451096038753</v>
       </c>
       <c r="CO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.003084502456760317</v>
+        <v>-0.00564786832138825</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.02855407675674411</v>
+        <v>-0.01262133163453199</v>
       </c>
       <c r="CS5" t="n">
         <v>-0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.01151486459324289</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
         <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.01280811615875435</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.009929773975412592</v>
+        <v>0.01591138536799253</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0.04928351377877064</v>
+        <v>0.02476848771374622</v>
       </c>
       <c r="DB5" t="n">
         <v>-0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.01274774641883546</v>
+        <v>-0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>0.0169096632894237</v>
       </c>
       <c r="DG5" t="n">
         <v>-0</v>
@@ -3047,16 +3047,16 @@
         <v>-0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.03185764470636629</v>
+        <v>0.03645997544895128</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.004066606780976447</v>
+        <v>0.00440046913448224</v>
       </c>
       <c r="DK5" t="n">
         <v>0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.01658330480187422</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
@@ -3065,7 +3065,7 @@
         <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.01310629503999035</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
@@ -3074,25 +3074,25 @@
         <v>-0</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.00126332952931602</v>
+        <v>0.03513449761250956</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.03865094976569791</v>
+        <v>-0.03774819159691402</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0.04345633189659662</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.01402852500461805</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
@@ -3101,52 +3101,52 @@
         <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.004210222658476042</v>
+        <v>-0.03825001086770231</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.01848081240267821</v>
+        <v>0.003354356606631699</v>
       </c>
       <c r="EC5" t="n">
         <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>-0.02291835368833596</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>-0.008639683863850058</v>
       </c>
       <c r="EH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
         <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.04438573710040725</v>
+        <v>0.004530740191146274</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0.08264924745327108</v>
+        <v>0.01079340676095349</v>
       </c>
       <c r="EL5" t="n">
         <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>-0.03334302535588952</v>
+        <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>0.0101026928726536</v>
       </c>
       <c r="EQ5" t="n">
         <v>-0</v>
@@ -3155,79 +3155,79 @@
         <v>0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.03165144238944079</v>
+        <v>0.005773292019777605</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0.04730136083392125</v>
+        <v>0.01916460486535386</v>
       </c>
       <c r="EU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.02415633051481743</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.00534733172397182</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
         <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.01053292926209669</v>
+        <v>0.01301465422396969</v>
       </c>
       <c r="FC5" t="n">
-        <v>-0.04550422426289893</v>
+        <v>0.02489470023506182</v>
       </c>
       <c r="FD5" t="n">
         <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.009633848302701468</v>
+        <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG5" t="n">
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.03977926383491597</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
         <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.01035400482642721</v>
+        <v>-0.04684466210833624</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0.01183071665356382</v>
+        <v>-0.001283688512195837</v>
       </c>
       <c r="FM5" t="n">
         <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.01407227449421422</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>-0</v>
+        <v>0.003537697709897292</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
@@ -3236,25 +3236,25 @@
         <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.001289882444995858</v>
+        <v>0.00180963413776773</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.009854224046359394</v>
+        <v>0.02403724112568531</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.0108445635222453</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>-0</v>
+        <v>-0.0107644234051965</v>
       </c>
       <c r="GA5" t="n">
         <v>0</v>
@@ -3263,16 +3263,16 @@
         <v>-0</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.04369927947566309</v>
+        <v>-0.01969228147768452</v>
       </c>
       <c r="GE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0.0306223889547597</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
         <v>0</v>
@@ -3283,22 +3283,22 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1183557427039793</v>
+        <v>0.3554834741765339</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-0.169731077660396</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02862042947218505</v>
+        <v>-0.02925855084210003</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2428605955434663</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H6" t="n">
         <v>-0</v>
@@ -3307,55 +3307,55 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.09611555268194368</v>
+        <v>0.2660640747201239</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-0.1576153899870753</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.02180365774309106</v>
+        <v>-0.09504239975096841</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3005668327367374</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.004691212444449049</v>
+        <v>0.1256195605694</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.02731500908129626</v>
       </c>
       <c r="W6" t="n">
-        <v>0.06075376784998984</v>
+        <v>0.07527514365905036</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1562294479873588</v>
+        <v>-0</v>
       </c>
       <c r="Y6" t="n">
         <v>-0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -3364,76 +3364,76 @@
         <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.01780240209176062</v>
+        <v>-0.01645158866193547</v>
       </c>
       <c r="AD6" t="n">
         <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0</v>
+        <v>-0.005078399719614066</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.03302068491857288</v>
+        <v>-0.001315938608642154</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.01427381609876054</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.03292468216673604</v>
+        <v>0.06003749711718513</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>-0.05840578067163657</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.05807108866386862</v>
+        <v>-0.008468129009323451</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.07757870117024952</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
         <v>-0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1478058131503507</v>
+        <v>0.496720579839677</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>-0.01028826099892909</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.112958652343093</v>
+        <v>0.1896024279842506</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.09914783896687637</v>
+        <v>-0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA6" t="n">
         <v>-0</v>
@@ -3442,25 +3442,25 @@
         <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.04761675139375417</v>
+        <v>0.00137307204550069</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0</v>
+        <v>-0.1076704215069631</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.04935873716562081</v>
+        <v>-0.1847450806684384</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.1047729758231264</v>
+        <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
@@ -3472,52 +3472,52 @@
         <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.04187378792192534</v>
+        <v>0.02901419610113873</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>-0</v>
+        <v>0.1019622929282801</v>
       </c>
       <c r="BP6" t="n">
-        <v>-0.08814451138378841</v>
+        <v>0.05579015769965312</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0.08454280401385782</v>
+        <v>-0</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.08277639793102586</v>
+        <v>0.2897436781094492</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0</v>
+        <v>-0.03482228300798591</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.04949224255671183</v>
+        <v>0.06805188594878923</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.173123802170407</v>
+        <v>-0</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
         <v>0</v>
@@ -3526,19 +3526,19 @@
         <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.04835674156922266</v>
+        <v>-0.1097648349225111</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>0.03784643981313174</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.01701653200771974</v>
+        <v>-0.03009342085257126</v>
       </c>
       <c r="CI6" t="n">
-        <v>-0.05216254040404201</v>
+        <v>-0</v>
       </c>
       <c r="CJ6" t="n">
         <v>-0</v>
@@ -3547,31 +3547,31 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>-0.002615212696292623</v>
+        <v>-0.01975091819071018</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>0</v>
+        <v>-0.0501285777795004</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.006606547838490004</v>
+        <v>-0.08701250091406273</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.05514257855961712</v>
+        <v>0</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU6" t="n">
         <v>0</v>
@@ -3580,19 +3580,19 @@
         <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.0346882263144276</v>
+        <v>-0.09285488691778247</v>
       </c>
       <c r="CX6" t="n">
         <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>0.05614517195302422</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.007284979346573023</v>
+        <v>-0.03044868179593049</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0.04753722525884867</v>
+        <v>0</v>
       </c>
       <c r="DB6" t="n">
         <v>0</v>
@@ -3601,31 +3601,31 @@
         <v>-0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.00596736697038919</v>
+        <v>-0.03981737854758793</v>
       </c>
       <c r="DG6" t="n">
         <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0</v>
+        <v>0.02294341138825893</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.01908923959087049</v>
+        <v>0.01882166786357043</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.05738997383521118</v>
+        <v>0</v>
       </c>
       <c r="DK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
@@ -3634,73 +3634,73 @@
         <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.002010497693710057</v>
+        <v>-0.05989610789615694</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0</v>
+        <v>-0.01832516694979579</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.03579433883322437</v>
+        <v>-0.05977427441375336</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.08814354499444932</v>
+        <v>0</v>
       </c>
       <c r="DT6" t="n">
         <v>-0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.004080825426013695</v>
+        <v>0.0219461072425613</v>
       </c>
       <c r="DY6" t="n">
         <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0</v>
+        <v>-0.005805823631992377</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.01132691225619916</v>
+        <v>-0.0456826251742486</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.01630311685439855</v>
+        <v>0</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.0753682428874588</v>
+        <v>-0.05729727527861347</v>
       </c>
       <c r="EH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0</v>
+        <v>0.0594454127493977</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.05077159044757709</v>
+        <v>0.04448801897265706</v>
       </c>
       <c r="EK6" t="n">
-        <v>-0.0755088733856089</v>
+        <v>-0</v>
       </c>
       <c r="EL6" t="n">
         <v>-0</v>
@@ -3712,49 +3712,49 @@
         <v>-0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.002449656641307102</v>
+        <v>-0.1027157712849295</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>-0</v>
+        <v>0.06005912712129366</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.02646304628200871</v>
+        <v>-0.02968712205254273</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0.0805796121521417</v>
+        <v>-0</v>
       </c>
       <c r="EU6" t="n">
         <v>-0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
         <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.05322774122869794</v>
+        <v>-0.1031650358848905</v>
       </c>
       <c r="EZ6" t="n">
         <v>0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0</v>
+        <v>0.06711076672284963</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.003745181430654231</v>
+        <v>-0.03639501572418339</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0.05717991763813314</v>
+        <v>-0</v>
       </c>
       <c r="FD6" t="n">
         <v>-0</v>
@@ -3763,25 +3763,25 @@
         <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.03981773652732495</v>
+        <v>-0.02321540961129795</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0</v>
+        <v>0.09002814056550335</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.001607733004353666</v>
+        <v>-0.05740868793883689</v>
       </c>
       <c r="FL6" t="n">
-        <v>-0.05754165703730026</v>
+        <v>-0</v>
       </c>
       <c r="FM6" t="n">
         <v>0</v>
@@ -3790,58 +3790,58 @@
         <v>0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.04195975517165521</v>
+        <v>0.004054593101786273</v>
       </c>
       <c r="FR6" t="n">
         <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0</v>
+        <v>0.03829828290064572</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.005196746104468646</v>
+        <v>0.01123257066644982</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.001267215523220044</v>
+        <v>-0</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX6" t="n">
         <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>-0.02200464185497659</v>
+        <v>-0.04346364654687313</v>
       </c>
       <c r="GA6" t="n">
         <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>-0.05834508309368545</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.04362547767119053</v>
+        <v>-0</v>
       </c>
       <c r="GE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
         <v>-0</v>
@@ -3852,25 +3852,25 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.2284679913330576</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005110261060039032</v>
+        <v>-0.03452672063430167</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1650441429418263</v>
+        <v>-0.1074085798484415</v>
       </c>
       <c r="G7" t="n">
         <v>-0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0219050634861562</v>
+        <v>-0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.1602336492809228</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -3888,43 +3888,43 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.01821682588169483</v>
+        <v>-0.02820327464291416</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1507793306664678</v>
+        <v>-0.1398325992482347</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.02218267361202121</v>
+        <v>-0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.04278282770678281</v>
       </c>
       <c r="U7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.03188171462096451</v>
+        <v>-0.01558406038026031</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04974629181843421</v>
+        <v>0.007785440844215277</v>
       </c>
       <c r="Y7" t="n">
         <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.01992430231736191</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>3.752436177073586e-11</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -3942,97 +3942,97 @@
         <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01158458214984911</v>
+        <v>-0.004832993455164162</v>
       </c>
       <c r="AG7" t="n">
-        <v>-3.035970603055421e-11</v>
+        <v>0.0008387144886187044</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0.006183655333842464</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0</v>
+        <v>0.02870283992388174</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.000842189538353816</v>
+        <v>-0.02668174624332875</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.02300416897262041</v>
+        <v>-0.04714194074961432</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.004081771067330877</v>
+        <v>-0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.21531647732545</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
         <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>-0.04356491880280317</v>
+        <v>-0.0605668347581087</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.08623243557304676</v>
+        <v>-0.135293036016447</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0.03005222772275138</v>
+        <v>-0</v>
       </c>
       <c r="BB7" t="n">
         <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.09047462026011717</v>
       </c>
       <c r="BE7" t="n">
         <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.002963772109693534</v>
+        <v>-0.05497979133580059</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.04219388006132273</v>
+        <v>-0.04577604159390475</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0.02407720684441812</v>
+        <v>0</v>
       </c>
       <c r="BK7" t="n">
         <v>-0</v>
@@ -4041,7 +4041,7 @@
         <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.08196687447206813</v>
       </c>
       <c r="BN7" t="n">
         <v>0</v>
@@ -4050,43 +4050,43 @@
         <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.002812985714981031</v>
+        <v>0.02506620431395474</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-0.04499009258385314</v>
+        <v>0.01465682322987735</v>
       </c>
       <c r="BR7" t="n">
         <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>-0.01131519442787456</v>
+        <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0</v>
+        <v>0.1003944587297585</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
         <v>0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.03203781966748726</v>
+        <v>-0.03008907212187986</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.1082542789805106</v>
+        <v>-0.04767340727559557</v>
       </c>
       <c r="CA7" t="n">
         <v>-0</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.01107825193909632</v>
+        <v>-0</v>
       </c>
       <c r="CC7" t="n">
         <v>0</v>
@@ -4095,52 +4095,52 @@
         <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.05607637536361321</v>
       </c>
       <c r="CF7" t="n">
         <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.001586073451595233</v>
+        <v>-0.009925109835392729</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0.03806548544441058</v>
+        <v>0.04935885380603319</v>
       </c>
       <c r="CJ7" t="n">
         <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.01551047856379114</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.005679436698296375</v>
       </c>
       <c r="CO7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP7" t="n">
         <v>0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.0007278210568663899</v>
+        <v>0.01601815944084762</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.03286708144897937</v>
+        <v>-0.02310457919597958</v>
       </c>
       <c r="CS7" t="n">
         <v>-0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.01274049452424541</v>
+        <v>-0</v>
       </c>
       <c r="CU7" t="n">
         <v>0</v>
@@ -4149,88 +4149,88 @@
         <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.04179292895874197</v>
       </c>
       <c r="CX7" t="n">
         <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.001129874355031764</v>
+        <v>-0.004990264128719448</v>
       </c>
       <c r="DA7" t="n">
-        <v>-0.04246267544087019</v>
+        <v>0.05057815540814781</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.01914622934219803</v>
+        <v>-0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.03294801804574252</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.05871311301648221</v>
+        <v>0.01184934108385071</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0.006534351636201897</v>
+        <v>-0.00501746531966426</v>
       </c>
       <c r="DK7" t="n">
         <v>0</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.003285295425795958</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN7" t="n">
         <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.01618948341817553</v>
       </c>
       <c r="DP7" t="n">
         <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.009612967317601376</v>
+        <v>0.006473076650608581</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.02752571257783048</v>
+        <v>0.003511936668645187</v>
       </c>
       <c r="DT7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.01940714639132374</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW7" t="n">
         <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>0.02959022693414754</v>
       </c>
       <c r="DY7" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>0</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.01012563231700124</v>
+        <v>-0.03051165691329462</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.002848673350347708</v>
+        <v>-0.03574908678776404</v>
       </c>
       <c r="EC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED7" t="n">
-        <v>-0.005229223977491061</v>
+        <v>0</v>
       </c>
       <c r="EE7" t="n">
         <v>-0</v>
@@ -4257,79 +4257,79 @@
         <v>-0</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0</v>
+        <v>-0.03713364414683632</v>
       </c>
       <c r="EH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
         <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.03302141115663009</v>
+        <v>0.01766434772990117</v>
       </c>
       <c r="EK7" t="n">
-        <v>-0.06737190861035329</v>
+        <v>0.03631483230744378</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>-0.01542628289819639</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.01979629546353126</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.02351308840492252</v>
+        <v>-0.02456015816617374</v>
       </c>
       <c r="ET7" t="n">
-        <v>-0.04254656900690974</v>
+        <v>0.02435776267337503</v>
       </c>
       <c r="EU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.03134827918620444</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
         <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.04311444157490446</v>
       </c>
       <c r="EZ7" t="n">
         <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.001577193687894801</v>
+        <v>-0.003213891078588824</v>
       </c>
       <c r="FC7" t="n">
-        <v>-0.0411128165403009</v>
+        <v>0.05233424280739479</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.01740928363119639</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
         <v>0</v>
@@ -4338,61 +4338,61 @@
         <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>-0.01075891408832467</v>
       </c>
       <c r="FI7" t="n">
         <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.0165436619724817</v>
+        <v>-0.02793878544877366</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0.02355625538103399</v>
+        <v>0.04202999971864651</v>
       </c>
       <c r="FM7" t="n">
         <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.0146193814604931</v>
+        <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>0.0005582140366675317</v>
       </c>
       <c r="FR7" t="n">
         <v>0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.0001781193207226818</v>
+        <v>-0.002758434040657075</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.001631650099254073</v>
+        <v>0.0411649266870156</v>
       </c>
       <c r="FV7" t="n">
         <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.002460953172502809</v>
+        <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>0.0003738339304476674</v>
       </c>
       <c r="GA7" t="n">
         <v>-0</v>
@@ -4404,16 +4404,16 @@
         <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.04635536482880671</v>
+        <v>-0.0463561752190459</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0.03155517902110432</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,79 +4421,79 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1549507156598293</v>
+        <v>0.4869774741774341</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>-0.154390742675009</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02863690055253916</v>
+        <v>-0.1151615655797581</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3258029269254069</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1095074326990551</v>
+        <v>0.3157799274773701</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-0.1374156125648737</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01664037105689785</v>
+        <v>-0.1271922506046665</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3488452515582567</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01375160718118987</v>
+        <v>0.1567461385501538</v>
       </c>
       <c r="U8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>-0.0410652096679272</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.002717394618406454</v>
+        <v>0.02679319549570661</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1420871630699446</v>
+        <v>-0</v>
       </c>
       <c r="Y8" t="n">
         <v>-0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -4502,22 +4502,22 @@
         <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.002916716931890362</v>
+        <v>0.008884469012214199</v>
       </c>
       <c r="AD8" t="n">
         <v>-0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0.0003389367582183338</v>
       </c>
       <c r="AF8" t="n">
-        <v>-7.039007103008176e-11</v>
+        <v>1.089148499428183e-12</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.01780913189157583</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -4529,19 +4529,19 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0.02596295310624518</v>
+        <v>0.08210360349654811</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>-0.04665885595132206</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.03818218601075984</v>
+        <v>-0.0541686556080892</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.08505839701728607</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
         <v>-0</v>
@@ -4553,103 +4553,103 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>-0.162980553873816</v>
+        <v>0.5219737528584432</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>0.004416026166317888</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.08273187526787643</v>
+        <v>0.03580393169993254</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.0864610293641478</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
         <v>-0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>-0.09193502452325587</v>
+        <v>0.03346750916934693</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>-0.1065414461962903</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.04457562505761541</v>
+        <v>-0.2052451839703452</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.1728695695333222</v>
+        <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
         <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.04130439036147734</v>
+        <v>0.07601678237639317</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0.07021626114810187</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0.07379643352084743</v>
+        <v>0.09700267887941633</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0.1237065914582721</v>
+        <v>-0</v>
       </c>
       <c r="BR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>-0.05966665912314281</v>
+        <v>0.2718983438228091</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0</v>
+        <v>-0.004504023944255808</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.06998711004473733</v>
+        <v>0.004296569911264418</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.1679301235928993</v>
+        <v>-0</v>
       </c>
       <c r="CA8" t="n">
         <v>-0</v>
@@ -4658,55 +4658,55 @@
         <v>-0</v>
       </c>
       <c r="CC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD8" t="n">
         <v>-0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.0526178730397681</v>
+        <v>-0.1242938867039773</v>
       </c>
       <c r="CF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>0</v>
+        <v>0.01667768510264707</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.002110368261419928</v>
+        <v>-0.009942366002800846</v>
       </c>
       <c r="CI8" t="n">
-        <v>-0.068190582512306</v>
+        <v>-0</v>
       </c>
       <c r="CJ8" t="n">
         <v>-0</v>
       </c>
       <c r="CK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.01659510162203828</v>
+        <v>0.005256408674187876</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>0</v>
+        <v>-0.0572429925122234</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.02084611833452933</v>
+        <v>-0.06139322909036381</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.06287458307909577</v>
+        <v>0</v>
       </c>
       <c r="CS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT8" t="n">
         <v>-0</v>
@@ -4718,73 +4718,73 @@
         <v>0</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.0475575508340261</v>
+        <v>-0.1098160971600999</v>
       </c>
       <c r="CX8" t="n">
         <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0</v>
+        <v>0.04264850198201325</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.002727877793352354</v>
+        <v>-0.02250967222110322</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0.06851168635352752</v>
+        <v>0</v>
       </c>
       <c r="DB8" t="n">
         <v>0</v>
       </c>
       <c r="DC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.01066675314217762</v>
+        <v>-0.04876772135973712</v>
       </c>
       <c r="DG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0.03129694248774936</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.0271488257751699</v>
+        <v>0.05686850196846879</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.04757311778946025</v>
+        <v>-0</v>
       </c>
       <c r="DK8" t="n">
         <v>-0</v>
       </c>
       <c r="DL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
         <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.008947739887763421</v>
+        <v>-0.0529347315939893</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0</v>
+        <v>0.03819526359363664</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.0258784951710455</v>
+        <v>-0.06753247676529003</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.07193856179422793</v>
+        <v>0</v>
       </c>
       <c r="DT8" t="n">
         <v>-0</v>
@@ -4793,52 +4793,52 @@
         <v>-0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
         <v>0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0.01156289838276521</v>
+        <v>0.05069679079969618</v>
       </c>
       <c r="DY8" t="n">
         <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0</v>
+        <v>-0.0004791776717347006</v>
       </c>
       <c r="EA8" t="n">
-        <v>-0.03873920687521732</v>
+        <v>-0.08424553676311637</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.00480418644033056</v>
+        <v>0</v>
       </c>
       <c r="EC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE8" t="n">
         <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.07141656314119499</v>
+        <v>-0.08860033367625435</v>
       </c>
       <c r="EH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0.03527958416208606</v>
       </c>
       <c r="EJ8" t="n">
-        <v>-0.1012903745286318</v>
+        <v>0.0414695461041819</v>
       </c>
       <c r="EK8" t="n">
-        <v>-0.1056708021191845</v>
+        <v>-0</v>
       </c>
       <c r="EL8" t="n">
         <v>-0</v>
@@ -4850,139 +4850,139 @@
         <v>-0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.003790751979470341</v>
+        <v>-0.06373952078818704</v>
       </c>
       <c r="EQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0.02958889561511986</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.04317885406768637</v>
+        <v>-0.02590612646610323</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0.1371519901471232</v>
+        <v>-0</v>
       </c>
       <c r="EU8" t="n">
         <v>-0</v>
       </c>
       <c r="EV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.06131455036085391</v>
+        <v>-0.1063954769510717</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0.03154461820912657</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.002175190073295181</v>
+        <v>-0.008540606609990209</v>
       </c>
       <c r="FC8" t="n">
-        <v>-0.0773276776660357</v>
+        <v>-0</v>
       </c>
       <c r="FD8" t="n">
         <v>-0</v>
       </c>
       <c r="FE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.06631535551189062</v>
+        <v>-0.03299478282619586</v>
       </c>
       <c r="FI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0.07081410395598503</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0.005117222777132036</v>
+        <v>-0.03742151106235899</v>
       </c>
       <c r="FL8" t="n">
-        <v>-0.02655072733294421</v>
+        <v>-0</v>
       </c>
       <c r="FM8" t="n">
         <v>0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.07562619569386832</v>
+        <v>0.0002471235973005015</v>
       </c>
       <c r="FR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
-        <v>0</v>
+        <v>0.05072207158088749</v>
       </c>
       <c r="FT8" t="n">
-        <v>-0.001341285851823475</v>
+        <v>-0.00209314617086632</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.0003328699469818601</v>
+        <v>-0</v>
       </c>
       <c r="FV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX8" t="n">
         <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>-0.03362688361668095</v>
+        <v>-0.0006301911071099038</v>
       </c>
       <c r="GA8" t="n">
         <v>-0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0</v>
+        <v>-0.04750498586788761</v>
       </c>
       <c r="GC8" t="n">
         <v>-0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.0467397894441511</v>
+        <v>-0</v>
       </c>
       <c r="GE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.7964118127581884</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -4999,16 +4999,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01054639127544034</v>
+        <v>-0.09086433714969991</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2214073635583867</v>
+        <v>-0.5819459345578362</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.05812312216740194</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.59896686164256</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -5026,70 +5026,70 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.03539695543743498</v>
+        <v>-0.00222497655747712</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2040451856579345</v>
+        <v>-0.6135549132693022</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.06591670714751828</v>
+        <v>-0</v>
       </c>
       <c r="R9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.0994347738963593</v>
       </c>
       <c r="U9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.03890811293303092</v>
+        <v>-0.1373717176437401</v>
       </c>
       <c r="X9" t="n">
-        <v>0.05231508753452066</v>
+        <v>-0.02963166551204573</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.002736518057438805</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.0286467359465614</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.01282274789327203</v>
+        <v>-0.001362222066248693</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.009940553898846009</v>
+        <v>-0.004380117734815604</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.003139794643950933</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.1431995457047099</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
@@ -5107,25 +5107,25 @@
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.00595643821441572</v>
+        <v>0.0934474908494287</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.03564315087794026</v>
+        <v>-0.1662667612174096</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.005309893679244807</v>
+        <v>-0</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>0.6913827163747037</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
@@ -5134,52 +5134,52 @@
         <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.03725979339891644</v>
+        <v>-0.1560368564185206</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.09594754334587337</v>
+        <v>-0.5390360036726252</v>
       </c>
       <c r="AZ9" t="n">
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.01464947769823169</v>
+        <v>-0</v>
       </c>
       <c r="BB9" t="n">
         <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.2649955939927354</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.002241765748335084</v>
+        <v>-0.1299839734002849</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.06824520473203363</v>
+        <v>-0.1399278472162197</v>
       </c>
       <c r="BI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0.06418602498783614</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.1846170643849217</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
@@ -5188,43 +5188,43 @@
         <v>-0</v>
       </c>
       <c r="BP9" t="n">
-        <v>-0.009645094605430553</v>
+        <v>0.02332790751119772</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0.05089164921243158</v>
+        <v>-0.01696513484835159</v>
       </c>
       <c r="BR9" t="n">
         <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>-0.01912903109054112</v>
+        <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>0.3818185231133373</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
         <v>0</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.03785106194445725</v>
+        <v>-0.1008290734541483</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.1393219163079102</v>
+        <v>-0.3432558246397133</v>
       </c>
       <c r="CA9" t="n">
         <v>-0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.001587447651663732</v>
+        <v>-0</v>
       </c>
       <c r="CC9" t="n">
         <v>0</v>
@@ -5233,106 +5233,106 @@
         <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.1617628431648664</v>
       </c>
       <c r="CF9" t="n">
         <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.008120140746878363</v>
+        <v>-0.04305213850584206</v>
       </c>
       <c r="CI9" t="n">
-        <v>-0.04847448540385908</v>
+        <v>0.1479100399775453</v>
       </c>
       <c r="CJ9" t="n">
         <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.01163895054450862</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0.01999831522312402</v>
       </c>
       <c r="CO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP9" t="n">
         <v>0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.004661027263833608</v>
+        <v>0.01810434378996758</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.0305870114690815</v>
+        <v>-0.01433723753361941</v>
       </c>
       <c r="CS9" t="n">
         <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>-0.009910818130389265</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV9" t="n">
         <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.1418498407857816</v>
       </c>
       <c r="CX9" t="n">
         <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.0001952552999389167</v>
+        <v>-0.0333425183063918</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0.05120406141672458</v>
+        <v>0.1721574617030762</v>
       </c>
       <c r="DB9" t="n">
         <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.01690523983972533</v>
+        <v>-0</v>
       </c>
       <c r="DD9" t="n">
         <v>-0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.03007819764473982</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
         <v>-0</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.03022753643386676</v>
+        <v>0.09372143481757716</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0.005306293864221527</v>
+        <v>-0.05607047542927979</v>
       </c>
       <c r="DK9" t="n">
         <v>0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.003523174815666227</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
@@ -5341,61 +5341,61 @@
         <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.04304834030855971</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.03210872235422433</v>
+        <v>-0.07077062274660034</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.04720496858455554</v>
+        <v>0.005730752271658217</v>
       </c>
       <c r="DT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.02031194596422978</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
         <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>0.02249378595618741</v>
       </c>
       <c r="DY9" t="n">
         <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.0151172081936911</v>
+        <v>-0.01395984722462919</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.008662102507472024</v>
+        <v>0.08874602788966204</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.02430295828841285</v>
+        <v>0</v>
       </c>
       <c r="EE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0</v>
+        <v>-0.125654166993829</v>
       </c>
       <c r="EH9" t="n">
         <v>0</v>
@@ -5404,70 +5404,70 @@
         <v>-0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.05266231532194428</v>
+        <v>0.0440789128758807</v>
       </c>
       <c r="EK9" t="n">
-        <v>-0.08007593927678643</v>
+        <v>0.1828894978124812</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>-0.007760360264161072</v>
+        <v>0</v>
       </c>
       <c r="EN9" t="n">
         <v>0</v>
       </c>
       <c r="EO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.06284333090566289</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.01968159029717774</v>
+        <v>-0.002036299591553622</v>
       </c>
       <c r="ET9" t="n">
-        <v>-0.03827065602209663</v>
+        <v>0.06216839031102195</v>
       </c>
       <c r="EU9" t="n">
         <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.01858243473951388</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.12762815647499</v>
       </c>
       <c r="EZ9" t="n">
         <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.005269451987529043</v>
+        <v>-0.04138200108062681</v>
       </c>
       <c r="FC9" t="n">
-        <v>-0.05453276167680823</v>
+        <v>0.136985255872985</v>
       </c>
       <c r="FD9" t="n">
         <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.01368617795335712</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
         <v>0</v>
@@ -5476,79 +5476,79 @@
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0.1131955235146625</v>
       </c>
       <c r="FI9" t="n">
         <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.02547444585034486</v>
+        <v>-0.01611442995717626</v>
       </c>
       <c r="FL9" t="n">
-        <v>-0.05460595829199429</v>
+        <v>-0.11093078758509</v>
       </c>
       <c r="FM9" t="n">
         <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.01493306477077751</v>
+        <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.03026185605095724</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT9" t="n">
-        <v>1.806048045913817e-05</v>
+        <v>0.0004225041839437869</v>
       </c>
       <c r="FU9" t="n">
-        <v>-0.00901368364741848</v>
+        <v>0.09198999692660896</v>
       </c>
       <c r="FV9" t="n">
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.006312984678595853</v>
+        <v>0</v>
       </c>
       <c r="FX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>0.06347507027416607</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC9" t="n">
         <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.05066298020109936</v>
+        <v>-0.04024948816024432</v>
       </c>
       <c r="GE9" t="n">
         <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0.01358252605785075</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
         <v>-0</v>
@@ -5556,49 +5556,49 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>-0.2054182648188196</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.8708346060688317</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3493405939183868</v>
+        <v>-0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07251418569671317</v>
+        <v>-0.2142746893700131</v>
       </c>
       <c r="F10" t="n">
-        <v>0.400966784718723</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>-0.2799874130475208</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.6767748172759319</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.3551133640007063</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.07645093267217766</v>
+        <v>-0.3187142043889502</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4389854566998277</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>-0</v>
@@ -5610,106 +5610,106 @@
         <v>-0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.08661850518539095</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.3190199761263086</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.03535644451213221</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1444103658577587</v>
+        <v>-0.0626094823326163</v>
       </c>
       <c r="X10" t="n">
-        <v>0.2181684928417075</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
         <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.03191548760864131</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0</v>
+        <v>0.06910573859886571</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.01185212461287647</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
         <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.1230276275882754</v>
+        <v>-0.02205537429460202</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.01295339484727962</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>-0.1400774738195134</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.2352246845127236</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.1324752930473914</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
         <v>-0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.1081713419592382</v>
+        <v>-0.03298982604353295</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.1187576676153462</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>0.05762307067448197</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.875061822051338</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0.2441755251169113</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.2479323772907078</v>
+        <v>0.2161073808240018</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.1251919641599046</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
         <v>-0</v>
@@ -5718,22 +5718,22 @@
         <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0</v>
+        <v>-0.03588018947950909</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0</v>
+        <v>0.07037043495076531</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0.03223330280907938</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.2683537645012456</v>
+        <v>-0.4494821724056719</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.1602500890047043</v>
+        <v>-0</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
@@ -5745,160 +5745,160 @@
         <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>0.07468026564367429</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.1406940318167552</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.04109344368624815</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.147304505105478</v>
+        <v>0.2247006743119875</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.01305386760323796</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0</v>
+        <v>0.06732868385898753</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.5501306223652715</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0.1391528582483841</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.08860326715430292</v>
+        <v>0.04883144363337718</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.3350114349671999</v>
+        <v>0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC10" t="n">
         <v>0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0</v>
+        <v>0.02749564617644119</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.1686842339307597</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.09312012072207143</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.0007205130700228428</v>
+        <v>0.0197272061931873</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0.09714715509397832</v>
+        <v>0</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>-0.2045427968028335</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.04250451396838024</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0.07366657679417109</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
         <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.1512805878369816</v>
+        <v>-0.1085070874375753</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.03038107878552547</v>
+        <v>-0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0.03503953057976069</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.1698249251277801</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.07604763653615218</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.07841359042632896</v>
+        <v>0.009188400521714062</v>
       </c>
       <c r="DA10" t="n">
-        <v>-0.06667369471675445</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>-0.0795071851972947</v>
       </c>
       <c r="DF10" t="n">
-        <v>-0</v>
+        <v>-0.2854670806193816</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.05307142409160387</v>
+        <v>-0</v>
       </c>
       <c r="DH10" t="n">
         <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.1041336788796673</v>
+        <v>0.07358401405962407</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.1179765244715278</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL10" t="n">
         <v>0</v>
@@ -5907,22 +5907,22 @@
         <v>-0</v>
       </c>
       <c r="DN10" t="n">
-        <v>-0</v>
+        <v>-0.03340661527867997</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0</v>
+        <v>-0.1247152244115288</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.01379524779872567</v>
+        <v>-0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.001876361076488475</v>
+        <v>-0.01035108343026999</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.03540831070149619</v>
+        <v>-0</v>
       </c>
       <c r="DT10" t="n">
         <v>0</v>
@@ -5931,25 +5931,25 @@
         <v>-0</v>
       </c>
       <c r="DV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>0</v>
+        <v>-0.00973104769102923</v>
       </c>
       <c r="DX10" t="n">
-        <v>0</v>
+        <v>-0.2643601141036239</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0.03404693576222038</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
         <v>0</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.008669929481070567</v>
+        <v>-0.2154811434489977</v>
       </c>
       <c r="EB10" t="n">
-        <v>-0.06225002687175535</v>
+        <v>-0</v>
       </c>
       <c r="EC10" t="n">
         <v>-0</v>
@@ -5961,25 +5961,25 @@
         <v>-0</v>
       </c>
       <c r="EF10" t="n">
-        <v>0</v>
+        <v>-0.01608947852282232</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0</v>
+        <v>-0.0003054533236781663</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.1178073632028898</v>
+        <v>0</v>
       </c>
       <c r="EI10" t="n">
         <v>0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.116681066173249</v>
+        <v>0.02745323490744002</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0.1643633738010124</v>
+        <v>0</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
         <v>-0</v>
@@ -5988,121 +5988,121 @@
         <v>-0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0</v>
+        <v>0.02867579761596263</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.1183527922792776</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0.007065661826917508</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
         <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.04399664753104093</v>
+        <v>-0.111128806208741</v>
       </c>
       <c r="ET10" t="n">
-        <v>-0.09468967466362377</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
         <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW10" t="n">
         <v>0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0</v>
+        <v>0.03067738597420665</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0</v>
+        <v>-0.1588236290144562</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.08731876711643738</v>
+        <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>-0.04096819847816631</v>
+        <v>-0.02351500576458665</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0.06449375664723297</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0</v>
+        <v>0.03019476664699346</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>-0.07313444762629849</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.0703198726293139</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
         <v>-0</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.01939023136553258</v>
+        <v>-0.08511835088412915</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0.03817727399148684</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
         <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0</v>
+        <v>0.0001899868233847223</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.09600406308637605</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.001056110683228705</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.0007506833886318853</v>
+        <v>-0.03288911514837847</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0.04823460616377626</v>
+        <v>-0</v>
       </c>
       <c r="FV10" t="n">
         <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX10" t="n">
         <v>-0</v>
       </c>
       <c r="FY10" t="n">
-        <v>-0</v>
+        <v>-0.2033111233342238</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.009227584742770667</v>
       </c>
       <c r="GA10" t="n">
-        <v>-0.08686362983154984</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
         <v>-0</v>
@@ -6111,10 +6111,10 @@
         <v>0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.01899828018567921</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
         <v>-0</v>
@@ -6128,25 +6128,25 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.1719540176490533</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0124731180660889</v>
+        <v>-0.05510748947682456</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3131357536075625</v>
+        <v>-0.08715665807871681</v>
       </c>
       <c r="G11" t="n">
         <v>-0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0836106616637966</v>
+        <v>-0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -6155,25 +6155,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.1390656461686944</v>
       </c>
       <c r="L11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.04565212276925949</v>
+        <v>-0.02624024872693008</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2738754525661404</v>
+        <v>-0.07232889606455117</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.06512958399667346</v>
+        <v>-0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -6182,25 +6182,25 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.02727864124550647</v>
       </c>
       <c r="U11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.04135783869165301</v>
+        <v>-0.01982417378577795</v>
       </c>
       <c r="X11" t="n">
-        <v>0.07375564879979757</v>
+        <v>0.00177633182022937</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.005587165895430746</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -6209,52 +6209,52 @@
         <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0</v>
+        <v>0.003768989232316697</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
         <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.04607386199300928</v>
+        <v>0.00501737195938803</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.01047748706435212</v>
+        <v>0.002169836679830884</v>
       </c>
       <c r="AH11" t="n">
         <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.00899477013726669</v>
+        <v>-0</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0</v>
+        <v>0.02590748447132112</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.0365179831450139</v>
+        <v>0.0008909777968175589</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.04508018126584569</v>
+        <v>-0.04164852344248137</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.0223131403932799</v>
+        <v>-0</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
@@ -6263,52 +6263,52 @@
         <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.1271298540695137</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
         <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.04687011601936206</v>
+        <v>-0.03770247805047881</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.151689235760051</v>
+        <v>-0.09526868018307566</v>
       </c>
       <c r="AZ11" t="n">
         <v>-0</v>
       </c>
       <c r="BA11" t="n">
-        <v>-0.04842570204684704</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0</v>
+        <v>0.03604310439482949</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.02798259667181826</v>
+        <v>-0.03919740946567946</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.07555184284814347</v>
+        <v>-0.02183761878672415</v>
       </c>
       <c r="BI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-0.06802037080793276</v>
+        <v>0</v>
       </c>
       <c r="BK11" t="n">
         <v>0</v>
@@ -6317,160 +6317,160 @@
         <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>0.03191466590888783</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>-0.01811572307809542</v>
+        <v>0.003310019553334726</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0.03845732830463874</v>
+        <v>0.008157693347078132</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>-0.01187338638867337</v>
+        <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>0.07007692543435005</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
         <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.006561405030000189</v>
+        <v>-0.02844187206118379</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.1366918284810005</v>
+        <v>-0.02748117557111489</v>
       </c>
       <c r="CA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>-0.0194158453527494</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
         <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>-0</v>
+        <v>-0.03525370561808943</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01439326935806796</v>
+        <v>0.0008299013390268792</v>
       </c>
       <c r="CI11" t="n">
-        <v>-0.05981005569487324</v>
+        <v>0.02571409301663053</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.01732551435905094</v>
+        <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0</v>
+        <v>0.003508196526299338</v>
       </c>
       <c r="CO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.03820578791766271</v>
+        <v>-0.003662989812347138</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.06755547685287458</v>
+        <v>-0.02252779228620241</v>
       </c>
       <c r="CS11" t="n">
         <v>-0</v>
       </c>
       <c r="CT11" t="n">
-        <v>-0.01718761146525069</v>
+        <v>-0</v>
       </c>
       <c r="CU11" t="n">
         <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0</v>
+        <v>-0.03222189101000417</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.01821868474501949</v>
+        <v>0.002035440516834429</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0.06179880568656168</v>
+        <v>0.03141525101889747</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.03587110498958136</v>
+        <v>-0</v>
       </c>
       <c r="DD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>-0.02464504027803544</v>
       </c>
       <c r="DG11" t="n">
         <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.01971499519760052</v>
+        <v>0.04390092452442424</v>
       </c>
       <c r="DJ11" t="n">
-        <v>-0.01934270601864574</v>
+        <v>-0.000415718521753898</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>-0.001702615472597425</v>
+        <v>0</v>
       </c>
       <c r="DM11" t="n">
         <v>0</v>
@@ -6479,7 +6479,7 @@
         <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>-0.0112438305052271</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
@@ -6488,208 +6488,208 @@
         <v>0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.0406246001482883</v>
+        <v>0.01783998545642576</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.0005023720432719563</v>
+        <v>-1.520451815036939e-05</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>-0.006388755582470963</v>
+        <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX11" t="n">
-        <v>-0</v>
+        <v>-0.02362827017215603</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
         <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.01039311989815776</v>
+        <v>0.006528698083716571</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0.008724877168021181</v>
+        <v>0.012803167295742</v>
       </c>
       <c r="EC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED11" t="n">
-        <v>-0.02368059047975068</v>
+        <v>0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>-0</v>
+        <v>-0.03508480927577015</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.03824124501546963</v>
+        <v>0.01182183706424115</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0.08260686105274533</v>
+        <v>0.03338423356741664</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>-0.00120860073516551</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>-0</v>
+        <v>-0.0211354864433247</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.02361698286622516</v>
+        <v>-0.007802926414176778</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0.03639253887701083</v>
+        <v>0.006600795818346028</v>
       </c>
       <c r="EU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV11" t="n">
-        <v>-0.07727995664267605</v>
+        <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>-0</v>
+        <v>-0.02995722307648519</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.01443238359747446</v>
+        <v>0.002203834215592546</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0.05640271251910283</v>
+        <v>0.02706645431695889</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.0346943795979256</v>
+        <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0</v>
+        <v>-0.001231492219864073</v>
       </c>
       <c r="FI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.008126078052029858</v>
+        <v>0.009410707390329997</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.01709486242247886</v>
+        <v>0.02954821090179123</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.03199858251086756</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
         <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>-0</v>
+        <v>-0.001983613360450768</v>
       </c>
       <c r="FR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.008410064651436223</v>
+        <v>0.01128133942941411</v>
       </c>
       <c r="FU11" t="n">
-        <v>-0.0364331016054663</v>
+        <v>0.01844022066727466</v>
       </c>
       <c r="FV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.03262337042546209</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>-0</v>
+        <v>0.005415781100468099</v>
       </c>
       <c r="GA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC11" t="n">
         <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.03886598963989956</v>
+        <v>-0.02005812897815362</v>
       </c>
       <c r="GE11" t="n">
         <v>-0</v>
       </c>
       <c r="GF11" t="n">
-        <v>-0.01592350901357995</v>
+        <v>-0</v>
       </c>
       <c r="GG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -6697,25 +6697,25 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.1057968697325088</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01270218302122335</v>
+        <v>-0.08475484688763088</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2202399298238789</v>
+        <v>-0.02057865388933401</v>
       </c>
       <c r="G12" t="n">
         <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.06086091378938027</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -6724,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.07480445114314249</v>
       </c>
       <c r="L12" t="n">
         <v>-0</v>
@@ -6733,16 +6733,16 @@
         <v>-0</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.02089687684939063</v>
+        <v>-0.06648916123669923</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1859677325154658</v>
+        <v>-0.02522494392780352</v>
       </c>
       <c r="P12" t="n">
         <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.04165629779189979</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -6751,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.01906094125911958</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -6760,79 +6760,79 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.04104961621792638</v>
+        <v>-0.004191752753759134</v>
       </c>
       <c r="X12" t="n">
-        <v>0.06107555665555862</v>
+        <v>0.01180110368614054</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.009353555150137628</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.003272045536479402</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
         <v>-0</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.03446938140776365</v>
+        <v>0.002587517684227683</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.005341697229176868</v>
+        <v>0.00231735278533981</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.00731294414450368</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.01806452962940453</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
         <v>-0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.01276934871020765</v>
+        <v>-0.01243386786388016</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.03206610742061666</v>
+        <v>-0.01228520317475038</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.01789343871113165</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.09027327901085329</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
@@ -6841,43 +6841,43 @@
         <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.06212222181041524</v>
+        <v>-0.05113521881706509</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.131225130709901</v>
+        <v>-0.01129680401635391</v>
       </c>
       <c r="AZ12" t="n">
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.03725257597401251</v>
+        <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.01919559861795131</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.01536783304553509</v>
+        <v>-0.04969339796314527</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.05056234715642035</v>
+        <v>-0.01919363218217901</v>
       </c>
       <c r="BI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.05058862881006787</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
@@ -6886,7 +6886,7 @@
         <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.02558812258889233</v>
       </c>
       <c r="BN12" t="n">
         <v>0</v>
@@ -6895,25 +6895,25 @@
         <v>0</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.02198164307885453</v>
+        <v>0.01396521779819443</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-0.01464103772702111</v>
+        <v>0.0217762928690108</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>-0.03653585608892636</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.04866710589721925</v>
       </c>
       <c r="BW12" t="n">
         <v>0</v>
@@ -6922,124 +6922,124 @@
         <v>0</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.0238061426857468</v>
+        <v>-0.02364773077474541</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.082301163121567</v>
+        <v>0.001996118077983738</v>
       </c>
       <c r="CA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.01823656552295962</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.01760819412881975</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.00804952957176246</v>
+        <v>0.01222752609177812</v>
       </c>
       <c r="CI12" t="n">
-        <v>-0.04054508134578586</v>
+        <v>0.007245793073079688</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.01425431493578011</v>
+        <v>-0</v>
       </c>
       <c r="CL12" t="n">
         <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>-0.0002141957200115257</v>
       </c>
       <c r="CO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.05480819233692449</v>
+        <v>-0.003925178938257989</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.02768981741393637</v>
+        <v>-0.003646202967627068</v>
       </c>
       <c r="CS12" t="n">
         <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>-0.01545344970290194</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
         <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.01094687758772159</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.006407253231333155</v>
+        <v>0.009415954308945634</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0.03756901127083116</v>
+        <v>0.01312032000253682</v>
       </c>
       <c r="DB12" t="n">
         <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.02377815333464796</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
         <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>-0</v>
+        <v>-0.01631896342086048</v>
       </c>
       <c r="DG12" t="n">
         <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.0005715455195514908</v>
+        <v>0.01846983431862562</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0.0149318991773868</v>
+        <v>-0.003693580578417738</v>
       </c>
       <c r="DK12" t="n">
         <v>0</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.001081552629769225</v>
+        <v>-0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
@@ -7048,88 +7048,88 @@
         <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.008041331963759196</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.02531864814078748</v>
+        <v>0.01979462192430372</v>
       </c>
       <c r="DS12" t="n">
-        <v>-0.001939064113356626</v>
+        <v>-0.01366813514594768</v>
       </c>
       <c r="DT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU12" t="n">
-        <v>-0.008522624827841619</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.01512565863019831</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
         <v>-0</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.001419407276779632</v>
+        <v>0.01340477666797229</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.004813729188034274</v>
+        <v>0.001415198527650156</v>
       </c>
       <c r="EC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0.004290232478310352</v>
+        <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0</v>
+        <v>-0.01793955233745228</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
         <v>0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.03440101140922604</v>
+        <v>0.01082317761302391</v>
       </c>
       <c r="EK12" t="n">
-        <v>-0.03737089104547726</v>
+        <v>0.007110880765519101</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.004693707100860302</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
         <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>0.0003538967037369907</v>
       </c>
       <c r="EQ12" t="n">
         <v>0</v>
@@ -7138,127 +7138,127 @@
         <v>0</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.0225453170541154</v>
+        <v>0.008469124541862586</v>
       </c>
       <c r="ET12" t="n">
-        <v>-0.01495464787480713</v>
+        <v>-0.001591717708135629</v>
       </c>
       <c r="EU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.01878731625772719</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.01113163272902852</v>
       </c>
       <c r="EZ12" t="n">
         <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.003284024285009472</v>
+        <v>0.01147713504073795</v>
       </c>
       <c r="FC12" t="n">
-        <v>-0.03898771935764456</v>
+        <v>0.0145324386488448</v>
       </c>
       <c r="FD12" t="n">
         <v>0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.02313621191522349</v>
+        <v>-0</v>
       </c>
       <c r="FF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG12" t="n">
         <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>-0.002715196563887185</v>
       </c>
       <c r="FI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.009366249596308242</v>
+        <v>0.01351145408553161</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.04289559685733395</v>
+        <v>0.01047446064001669</v>
       </c>
       <c r="FM12" t="n">
         <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.02838933163769459</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
         <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.002701188916824334</v>
       </c>
       <c r="FR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.01181650575608415</v>
+        <v>0.008326859423344778</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0.02226209952420131</v>
+        <v>0.0120175413229906</v>
       </c>
       <c r="FV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.02151283009736115</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>-0.0005504205876127753</v>
       </c>
       <c r="GA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB12" t="n">
         <v>-0</v>
       </c>
       <c r="GC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.05312738085893519</v>
+        <v>-0.01311505274425613</v>
       </c>
       <c r="GE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF12" t="n">
-        <v>-0.001123073197148161</v>
+        <v>-0</v>
       </c>
       <c r="GG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -7266,73 +7266,73 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1640080092294201</v>
+        <v>0.4153572051450508</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>-0.1527524371230786</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05402712755723647</v>
+        <v>-0.05337349798471756</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4426168561637444</v>
+        <v>-0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.1798748037982858</v>
+        <v>0.3239443995061827</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0</v>
+        <v>-0.1895680220001493</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02529482821195926</v>
+        <v>-0.06892823910276677</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4476971154813156</v>
+        <v>-0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.008856258125150011</v>
+        <v>0.102082386197136</v>
       </c>
       <c r="U13" t="n">
         <v>-0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.01067781167138243</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.02309851316158408</v>
+        <v>0.09840651620137804</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1133505457911825</v>
+        <v>-0</v>
       </c>
       <c r="Y13" t="n">
         <v>-0</v>
@@ -7341,82 +7341,82 @@
         <v>-0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.02291593913526896</v>
+        <v>0.1042984366478261</v>
       </c>
       <c r="AD13" t="n">
         <v>-0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0</v>
+        <v>-0.008280249905984419</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.07998905518044927</v>
+        <v>0.007868876847546148</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.07591466510355863</v>
+        <v>-0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.04125307593000817</v>
+        <v>-0.01413306067264882</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>-0.06963297121984609</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.0409909542271615</v>
+        <v>-0.09327890535983155</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.105668166789883</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
         <v>-0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.1887639094721299</v>
+        <v>0.3350417824791784</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>-0.0582899494006054</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.07438590928188842</v>
+        <v>0.1352134909149114</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.1468082877406041</v>
+        <v>-0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA13" t="n">
         <v>-0</v>
@@ -7428,19 +7428,19 @@
         <v>-0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.0484644571502059</v>
+        <v>0.03028057937233576</v>
       </c>
       <c r="BE13" t="n">
         <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0</v>
+        <v>-0.06014711045112877</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.04593102020728893</v>
+        <v>-0.1089048352468886</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.1678656697359452</v>
+        <v>0</v>
       </c>
       <c r="BI13" t="n">
         <v>0</v>
@@ -7449,79 +7449,79 @@
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
         <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.02094961875661749</v>
+        <v>0.05861349550282345</v>
       </c>
       <c r="BN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0</v>
+        <v>0.0575667306426512</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.06630104163964463</v>
+        <v>0.1982779608751278</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0.06997072574134648</v>
+        <v>-0</v>
       </c>
       <c r="BR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0.0658717682212942</v>
+        <v>0.1635072823828878</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0</v>
+        <v>0.01661427909170024</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.01966348506022247</v>
+        <v>0.09747195118235644</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.2039625298857525</v>
+        <v>-0</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
         <v>-0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.05611989552413827</v>
+        <v>-0.09299382153137263</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>0.02466341910762236</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.008532762824411807</v>
+        <v>-0.01222205628045068</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0.06769041145433907</v>
+        <v>0</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
@@ -7536,19 +7536,19 @@
         <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.02487983115471043</v>
+        <v>-0.03087720610851103</v>
       </c>
       <c r="CO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0</v>
+        <v>-0.07622409350281764</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.06313692421097736</v>
+        <v>-0.136309073103893</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.05056360608046226</v>
+        <v>0</v>
       </c>
       <c r="CS13" t="n">
         <v>-0</v>
@@ -7560,52 +7560,52 @@
         <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.04797732039467587</v>
+        <v>-0.08923844109489036</v>
       </c>
       <c r="CX13" t="n">
         <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0</v>
+        <v>0.04471339974487957</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.00281634926878357</v>
+        <v>-0.004810092314039812</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0.07142776916545206</v>
+        <v>-0</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD13" t="n">
         <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.02518757423042676</v>
+        <v>-0.008880697775690335</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>-0</v>
+        <v>0.003708755479479001</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.02785435671587684</v>
+        <v>-0.002878872980683219</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.04386969548999159</v>
+        <v>-0</v>
       </c>
       <c r="DK13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL13" t="n">
         <v>0</v>
@@ -7617,46 +7617,46 @@
         <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0.0143655740351343</v>
+        <v>-0.01040306623990542</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0</v>
+        <v>-0.1684177412083869</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.02475429922308684</v>
+        <v>-0.03684732392055023</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.07922910064098788</v>
+        <v>0</v>
       </c>
       <c r="DT13" t="n">
         <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
         <v>-0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.0399671759891168</v>
+        <v>-0.06528869013948503</v>
       </c>
       <c r="DY13" t="n">
         <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0</v>
+        <v>0.01647540544408062</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.03530637659791159</v>
+        <v>0.01696301540797479</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0.03606067698485011</v>
+        <v>0</v>
       </c>
       <c r="EC13" t="n">
         <v>0</v>
@@ -7668,25 +7668,25 @@
         <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.06206102607718177</v>
+        <v>-0.1170385087711713</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0</v>
+        <v>0.08252476119456385</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.110841360299061</v>
+        <v>0.07755929381076397</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0.08936259560748382</v>
+        <v>0</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
         <v>-0</v>
@@ -7695,76 +7695,76 @@
         <v>-0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.01556790536809672</v>
+        <v>-0.08683023244737859</v>
       </c>
       <c r="EQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>-0</v>
+        <v>0.06773080070714632</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.009092581525501539</v>
+        <v>0.01989386463468211</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0.1090415743330211</v>
+        <v>0</v>
       </c>
       <c r="EU13" t="n">
         <v>-0</v>
       </c>
       <c r="EV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW13" t="n">
         <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.05490889285897006</v>
+        <v>-0.08395258427681976</v>
       </c>
       <c r="EZ13" t="n">
         <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>-0</v>
+        <v>0.02768983226285621</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.008028330778484</v>
+        <v>-0.004075162106430106</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0.07874185538429103</v>
+        <v>0</v>
       </c>
       <c r="FD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF13" t="n">
         <v>-0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0.0239996108211409</v>
+        <v>-0.02981761782796473</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0</v>
+        <v>-0.07811525575997685</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.09296269890617494</v>
+        <v>0.03957293323877484</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.04703578092638429</v>
+        <v>-0</v>
       </c>
       <c r="FM13" t="n">
         <v>0</v>
@@ -7773,58 +7773,58 @@
         <v>0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
         <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.04569862860283424</v>
+        <v>-0.006028435789170863</v>
       </c>
       <c r="FR13" t="n">
         <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0</v>
+        <v>0.1084392961027306</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.02740672817715338</v>
+        <v>-0.005669346021173258</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0.03259158302164526</v>
+        <v>-0</v>
       </c>
       <c r="FV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX13" t="n">
         <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>-0.03531849743897993</v>
+        <v>0.01330668224531322</v>
       </c>
       <c r="GA13" t="n">
         <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0</v>
+        <v>-0.0646767419494222</v>
       </c>
       <c r="GC13" t="n">
         <v>-0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.09193603959836691</v>
+        <v>-0</v>
       </c>
       <c r="GE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
         <v>-0</v>
@@ -7835,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -7847,7 +7847,7 @@
         <v>-0</v>
       </c>
       <c r="F14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -7862,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -7874,7 +7874,7 @@
         <v>-0</v>
       </c>
       <c r="O14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -7889,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -7901,7 +7901,7 @@
         <v>-0</v>
       </c>
       <c r="X14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -7928,7 +7928,7 @@
         <v>-0</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -7955,7 +7955,7 @@
         <v>-0</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
         <v>0</v>
@@ -7970,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
@@ -7982,7 +7982,7 @@
         <v>-0</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ14" t="n">
         <v>0</v>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
@@ -8009,7 +8009,7 @@
         <v>-0</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
         <v>0</v>
@@ -8024,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
@@ -8036,7 +8036,7 @@
         <v>-0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR14" t="n">
         <v>0</v>
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
@@ -8063,7 +8063,7 @@
         <v>-0</v>
       </c>
       <c r="BZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA14" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
@@ -8090,7 +8090,7 @@
         <v>-0</v>
       </c>
       <c r="CI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ14" t="n">
         <v>0</v>
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO14" t="n">
         <v>0</v>
@@ -8117,7 +8117,7 @@
         <v>-0</v>
       </c>
       <c r="CR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS14" t="n">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>-0</v>
       </c>
       <c r="DJ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK14" t="n">
         <v>0</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
@@ -8198,7 +8198,7 @@
         <v>-0</v>
       </c>
       <c r="DS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT14" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
@@ -8225,7 +8225,7 @@
         <v>-0</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
         <v>0</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>-0</v>
       </c>
       <c r="EK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL14" t="n">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
         <v>0</v>
@@ -8279,7 +8279,7 @@
         <v>-0</v>
       </c>
       <c r="ET14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU14" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>-0</v>
       </c>
       <c r="FC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD14" t="n">
         <v>0</v>
@@ -8348,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR14" t="n">
         <v>0</v>
@@ -8360,7 +8360,7 @@
         <v>-0</v>
       </c>
       <c r="FU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV14" t="n">
         <v>0</v>
@@ -8404,52 +8404,52 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.1955844602962666</v>
       </c>
       <c r="C15" t="n">
         <v>-0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04275229098101416</v>
+        <v>-0.0573237275039872</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3746715100960667</v>
+        <v>-0.1176689356884328</v>
       </c>
       <c r="G15" t="n">
         <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.143888689889522</v>
+        <v>-0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.1725380383146246</v>
       </c>
       <c r="L15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.0551944088581066</v>
+        <v>-0.03145811373663959</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3286217085658872</v>
+        <v>-0.1173016771310044</v>
       </c>
       <c r="P15" t="n">
         <v>-0</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1050995015128057</v>
+        <v>-0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -8458,52 +8458,52 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>0.02088460486761182</v>
       </c>
       <c r="U15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.0387905188015592</v>
+        <v>-0.01640005628446425</v>
       </c>
       <c r="X15" t="n">
-        <v>0.08323744888750838</v>
+        <v>-0.001993725783814916</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.007880083297743678</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
         <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0</v>
+        <v>0.001356453217562624</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE15" t="n">
         <v>-0</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.08801760652479794</v>
+        <v>0.01935586411750067</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.03671929416807177</v>
+        <v>-0.0002807767392033485</v>
       </c>
       <c r="AH15" t="n">
         <v>-0</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.03592301179752681</v>
+        <v>-0</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0</v>
+        <v>0.02453327275050268</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -8521,106 +8521,106 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.02316322357300079</v>
+        <v>0.004011956251488029</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.05055865759470098</v>
+        <v>-0.03186811951592929</v>
       </c>
       <c r="AQ15" t="n">
         <v>-0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.009225444561316621</v>
+        <v>-0</v>
       </c>
       <c r="AS15" t="n">
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.1182207341344241</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW15" t="n">
         <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.08418716435159276</v>
+        <v>-0.01706000986491803</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.1469522636858424</v>
+        <v>-0.0622545558779858</v>
       </c>
       <c r="AZ15" t="n">
         <v>-0</v>
       </c>
       <c r="BA15" t="n">
-        <v>-0.04811562335898001</v>
+        <v>-0</v>
       </c>
       <c r="BB15" t="n">
         <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0</v>
+        <v>0.03487884350627186</v>
       </c>
       <c r="BE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.03672394965961897</v>
+        <v>-0.04686936049584645</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.07476686181106251</v>
+        <v>-0.04431923995765664</v>
       </c>
       <c r="BI15" t="n">
         <v>-0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>-0.1098920171471616</v>
+        <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL15" t="n">
         <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>0.03312529975264238</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP15" t="n">
-        <v>-0.02602749634544449</v>
+        <v>0.003557253501918739</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0.02790475565309935</v>
+        <v>0.01915244502906337</v>
       </c>
       <c r="BR15" t="n">
         <v>-0</v>
       </c>
       <c r="BS15" t="n">
-        <v>-0.02787494074594424</v>
+        <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>0.0602171278281084</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -8629,16 +8629,16 @@
         <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>-0.03629719851055058</v>
+        <v>-0.01864234103097717</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.1187571735711505</v>
+        <v>-0.04035080286368642</v>
       </c>
       <c r="CA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB15" t="n">
-        <v>-0.04596192708862405</v>
+        <v>-0</v>
       </c>
       <c r="CC15" t="n">
         <v>0</v>
@@ -8647,106 +8647,106 @@
         <v>-0</v>
       </c>
       <c r="CE15" t="n">
-        <v>-0</v>
+        <v>-0.03091895479689228</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.01154071832204111</v>
+        <v>-0.002999741711921904</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0.05744295988924249</v>
+        <v>0.02745837148458497</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.02724841065363137</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>0.00736323709553628</v>
       </c>
       <c r="CO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP15" t="n">
         <v>0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.08145164979016638</v>
+        <v>-0.01337612968087371</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.07500070168640031</v>
+        <v>-0.008538606990017008</v>
       </c>
       <c r="CS15" t="n">
         <v>-0</v>
       </c>
       <c r="CT15" t="n">
-        <v>-0.01342692552323458</v>
+        <v>-0</v>
       </c>
       <c r="CU15" t="n">
         <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>0</v>
+        <v>-0.02406000500622384</v>
       </c>
       <c r="CX15" t="n">
         <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.0141049860178376</v>
+        <v>-0.006775498304454394</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0.0539285240900138</v>
+        <v>0.03280272960414036</v>
       </c>
       <c r="DB15" t="n">
         <v>0</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.0434674051993164</v>
+        <v>-0</v>
       </c>
       <c r="DD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0.01228768337052847</v>
       </c>
       <c r="DG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.00876027998631647</v>
+        <v>0.03094020918752625</v>
       </c>
       <c r="DJ15" t="n">
-        <v>-0.0003083616151277164</v>
+        <v>0.0001226839614979743</v>
       </c>
       <c r="DK15" t="n">
         <v>0</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.004198282310600853</v>
+        <v>0</v>
       </c>
       <c r="DM15" t="n">
         <v>0</v>
@@ -8755,7 +8755,7 @@
         <v>-0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0.006795211005618329</v>
       </c>
       <c r="DP15" t="n">
         <v>0</v>
@@ -8764,52 +8764,52 @@
         <v>0</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.02427681142372617</v>
+        <v>0.0307923293361752</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.007793447698999007</v>
+        <v>0.0004612995519719142</v>
       </c>
       <c r="DT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.01275423133064132</v>
+        <v>0</v>
       </c>
       <c r="DV15" t="n">
         <v>0</v>
       </c>
       <c r="DW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>-0.01377460250652974</v>
       </c>
       <c r="DY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ15" t="n">
         <v>-0</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.03043110351781381</v>
+        <v>-0.004741634155976387</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.01290470907738919</v>
+        <v>0.01780713693393893</v>
       </c>
       <c r="EC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED15" t="n">
-        <v>-4.756968876024639e-05</v>
+        <v>0</v>
       </c>
       <c r="EE15" t="n">
         <v>-0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>-0</v>
+        <v>-0.03293124787782795</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
@@ -8818,133 +8818,133 @@
         <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>-0.03470658868181063</v>
+        <v>0.00304971769285448</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0.05205255521581663</v>
+        <v>0.02741264553479034</v>
       </c>
       <c r="EL15" t="n">
         <v>-0</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.01692434938383803</v>
+        <v>-0</v>
       </c>
       <c r="EN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO15" t="n">
         <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>-0</v>
+        <v>-0.01162491910939762</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.06387468826513699</v>
+        <v>-0.01449646432241165</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0.04815516040688596</v>
+        <v>0.01451631036138486</v>
       </c>
       <c r="EU15" t="n">
         <v>-0</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.02563270981368841</v>
+        <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>-0</v>
+        <v>-0.02235811953906987</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.01352435368442273</v>
+        <v>-0.004649318084795771</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0.0549012165936325</v>
+        <v>0.03077857441642638</v>
       </c>
       <c r="FD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.04177501431705519</v>
+        <v>0</v>
       </c>
       <c r="FF15" t="n">
         <v>0</v>
       </c>
       <c r="FG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>-0</v>
+        <v>0.002722592043912259</v>
       </c>
       <c r="FI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0.01656509008031161</v>
+        <v>0.008630068950705883</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.05786463429526632</v>
+        <v>-0.02239772934934034</v>
       </c>
       <c r="FM15" t="n">
         <v>0</v>
       </c>
       <c r="FN15" t="n">
-        <v>-0.05052259090484992</v>
+        <v>-0</v>
       </c>
       <c r="FO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP15" t="n">
         <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0</v>
+        <v>-0.003555128235483988</v>
       </c>
       <c r="FR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.01340676034234507</v>
+        <v>0.003938254028870664</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0.05632438617085331</v>
+        <v>0.03465978461921009</v>
       </c>
       <c r="FV15" t="n">
         <v>-0</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.06926449070065499</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>-0</v>
+        <v>0.01840337407645683</v>
       </c>
       <c r="GA15" t="n">
         <v>-0</v>
@@ -8953,16 +8953,16 @@
         <v>-0</v>
       </c>
       <c r="GC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.07486491121056346</v>
+        <v>-0.01639096137968626</v>
       </c>
       <c r="GE15" t="n">
         <v>-0</v>
       </c>
       <c r="GF15" t="n">
-        <v>-0.009767501674757751</v>
+        <v>-0</v>
       </c>
       <c r="GG15" t="n">
         <v>-0</v>
